--- a/30_請求書.xlsx
+++ b/30_請求書.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128ABFDD-59EF-43C2-81DA-C81EF0F220EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEFFFC8C-23B4-49FD-A276-249911177679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3996" yWindow="804" windowWidth="17280" windowHeight="10872" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="41">
   <si>
     <t>請求書</t>
     <rPh sb="0" eb="3">
@@ -367,6 +367,14 @@
     <rPh sb="0" eb="2">
       <t>マイド</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Ctrl+:→</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Ctrl+;→</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -374,11 +382,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="176" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
+    <numFmt numFmtId="177" formatCode="[$]ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@" x16r2:formatCode16="[$-ja-JP-x-gannen]ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="180" formatCode="#,##0&quot;円&quot;"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -430,6 +440,24 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -547,7 +575,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -590,46 +618,53 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
@@ -672,12 +707,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BE33BC81-CB04-44BA-83EE-574F6EB9FEBE}" name="テーブル1" displayName="テーブル1" ref="B2:D11" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BE33BC81-CB04-44BA-83EE-574F6EB9FEBE}" name="テーブル1" displayName="テーブル1" ref="B2:D11" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="B2:D11" xr:uid="{BE33BC81-CB04-44BA-83EE-574F6EB9FEBE}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{FA19BA87-DD4B-4552-AA2B-A34BC3BF8003}" name="注文番号" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{7E350A9C-0DB4-4BEE-8EED-D4D528CFEA40}" name="商品名" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{8886696A-D4E9-468E-B067-D76F69A7774E}" name="本体価格" dataDxfId="2" dataCellStyle="桁区切り"/>
+    <tableColumn id="1" xr3:uid="{FA19BA87-DD4B-4552-AA2B-A34BC3BF8003}" name="注文番号" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{7E350A9C-0DB4-4BEE-8EED-D4D528CFEA40}" name="商品名" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{8886696A-D4E9-468E-B067-D76F69A7774E}" name="本体価格" dataDxfId="0" dataCellStyle="桁区切り"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -973,7 +1008,7 @@
   <dimension ref="B2:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1001,7 +1036,7 @@
       <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="35">
+      <c r="D3" s="23">
         <v>15900</v>
       </c>
     </row>
@@ -1012,7 +1047,7 @@
       <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="35">
+      <c r="D4" s="23">
         <v>19900</v>
       </c>
     </row>
@@ -1023,7 +1058,7 @@
       <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="35">
+      <c r="D5" s="23">
         <v>49400</v>
       </c>
     </row>
@@ -1034,7 +1069,7 @@
       <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="35">
+      <c r="D6" s="23">
         <v>9800</v>
       </c>
     </row>
@@ -1045,7 +1080,7 @@
       <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="35">
+      <c r="D7" s="23">
         <v>14000</v>
       </c>
     </row>
@@ -1056,7 +1091,7 @@
       <c r="C8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="23">
         <v>25400</v>
       </c>
     </row>
@@ -1067,7 +1102,7 @@
       <c r="C9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="35">
+      <c r="D9" s="23">
         <v>12300</v>
       </c>
     </row>
@@ -1078,7 +1113,7 @@
       <c r="C10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="35">
+      <c r="D10" s="23">
         <v>26700</v>
       </c>
     </row>
@@ -1089,12 +1124,15 @@
       <c r="C11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="35">
+      <c r="D11" s="23">
         <v>3500</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
+  <dataValidations count="1">
+    <dataValidation imeMode="halfAlpha" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D11" xr:uid="{7A7AC6BE-589A-4C0F-840C-44BFE82AD47A}"/>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -1104,7 +1142,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:E1"/>
@@ -1113,24 +1151,25 @@
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.109375" customWidth="1"/>
-    <col min="2" max="2" width="18.21875" customWidth="1"/>
+    <col min="2" max="2" width="35.109375" customWidth="1"/>
     <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.44140625" customWidth="1"/>
     <col min="5" max="5" width="10.109375" customWidth="1"/>
     <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:7" s="5" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
       <c r="F1" s="19"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
         <v>1</v>
       </c>
@@ -1138,20 +1177,32 @@
       <c r="D3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="9">
-        <v>100123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="27"/>
       <c r="B4" s="27"/>
-      <c r="D4" s="34">
+      <c r="D4" s="39">
         <f ca="1">TODAY()</f>
         <v>45373</v>
       </c>
-      <c r="E4" s="34"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E4" s="39"/>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="18">
+        <v>45373</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="40">
+        <v>0.58472222222222225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1159,23 +1210,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="D7" s="25" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="38">
+        <f>E19</f>
+        <v>194370</v>
+      </c>
+      <c r="B7" s="38"/>
+      <c r="D7" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="25"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="D8" s="25" t="s">
+      <c r="E7" s="26"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="D8" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="25"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E8" s="26"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>7</v>
       </c>
@@ -1192,55 +1246,117 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="22">
-        <v>1580</v>
-      </c>
-      <c r="D11" s="23">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>1001</v>
+      </c>
+      <c r="B11" s="4" t="str">
+        <f>IF(A11="","",VLOOKUP(A11,テーブル1[],2,FALSE))</f>
+        <v>折りたたみテーブル</v>
+      </c>
+      <c r="C11" s="37">
+        <f>IFERROR(VLOOKUP(A11,テーブル1[],3,FALSE),"")</f>
+        <v>15900</v>
+      </c>
+      <c r="D11" s="22">
         <v>2</v>
       </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="22">
-        <v>1250</v>
-      </c>
-      <c r="D12" s="23">
-        <v>3</v>
-      </c>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E11" s="21">
+        <f>IFERROR(C11*D11,"")</f>
+        <v>31800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B12" s="4" t="str">
+        <f>IF(A12="","",VLOOKUP(A12,テーブル1[],2,FALSE))</f>
+        <v>ラウンドテーブル</v>
+      </c>
+      <c r="C12" s="37">
+        <f>IFERROR(VLOOKUP(A12,テーブル1[],3,FALSE),"")</f>
+        <v>19900</v>
+      </c>
+      <c r="D12" s="22">
+        <v>2</v>
+      </c>
+      <c r="E12" s="21">
+        <f t="shared" ref="E12:E16" si="0">IFERROR(C12*D12,"")</f>
+        <v>39800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>2001</v>
+      </c>
+      <c r="B13" s="4" t="str">
+        <f>IF(A13="","",VLOOKUP(A13,テーブル1[],2,FALSE))</f>
+        <v>OAチェア</v>
+      </c>
+      <c r="C13" s="37">
+        <f>IFERROR(VLOOKUP(A13,テーブル1[],3,FALSE),"")</f>
+        <v>9800</v>
+      </c>
+      <c r="D13" s="22">
+        <v>8</v>
+      </c>
+      <c r="E13" s="21">
+        <f t="shared" si="0"/>
+        <v>78400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>3002</v>
+      </c>
+      <c r="B14" s="4" t="str">
+        <f>IF(A14="","",VLOOKUP(A14,テーブル1[],2,FALSE))</f>
+        <v>ホワイトボード</v>
+      </c>
+      <c r="C14" s="37">
+        <f>IFERROR(VLOOKUP(A14,テーブル1[],3,FALSE),"")</f>
+        <v>26700</v>
+      </c>
+      <c r="D14" s="22">
+        <v>1</v>
+      </c>
+      <c r="E14" s="21">
+        <f t="shared" si="0"/>
+        <v>26700</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="4" t="str">
+        <f>IF(A15="","",VLOOKUP(A15,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C15" s="37" t="str">
+        <f>IFERROR(VLOOKUP(A15,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D15" s="36"/>
+      <c r="E15" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="3"/>
+      <c r="B16" s="4" t="str">
+        <f>IF(A16="","",VLOOKUP(A16,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C16" s="37" t="str">
+        <f>IFERROR(VLOOKUP(A16,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D16" s="36"/>
+      <c r="E16" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="27" t="s">
@@ -1249,11 +1365,14 @@
       <c r="B17" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="3"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="34">
+        <f>SUM(E11:E16)</f>
+        <v>176700</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="27"/>
@@ -1266,17 +1385,23 @@
       <c r="D18" s="7">
         <v>0.1</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="3">
+        <f>ROUNDDOWN(E17*D18,0)</f>
+        <v>17670</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="3"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="35">
+        <f>E17+E18</f>
+        <v>194370</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="D7:E7"/>
@@ -1285,10 +1410,11 @@
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A7:B8"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
-    <dataValidation imeMode="off" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D16" xr:uid="{8D1C171E-CED7-4F98-8D86-B163E8C2B401}"/>
+    <dataValidation imeMode="halfAlpha" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D14" xr:uid="{F4050880-E733-4F08-82A8-4DAC086F45DA}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1326,13 +1452,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="5" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
       <c r="F1" s="19"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1350,36 +1476,36 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="27"/>
       <c r="B4" s="27"/>
-      <c r="D4" s="26">
+      <c r="D4" s="31">
         <f ca="1">TODAY()</f>
         <v>45373</v>
       </c>
-      <c r="E4" s="26"/>
+      <c r="E4" s="31"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="25"/>
+      <c r="B6" s="26"/>
       <c r="E6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
-      <c r="D7" s="25" t="s">
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="D7" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="25"/>
+      <c r="E7" s="26"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
-      <c r="D8" s="25" t="s">
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="D8" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="25"/>
+      <c r="E8" s="26"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
@@ -1445,10 +1571,10 @@
         <v>31</v>
       </c>
       <c r="B17" s="1"/>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="29"/>
+      <c r="D17" s="28"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -1467,10 +1593,10 @@
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="29"/>
+      <c r="D19" s="28"/>
       <c r="E19" s="3"/>
     </row>
   </sheetData>
@@ -1540,10 +1666,10 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="25"/>
+      <c r="B6" s="26"/>
       <c r="E6" t="s">
         <v>3</v>
       </c>
@@ -1629,7 +1755,7 @@
       <c r="A18" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="20" t="s">
         <v>38</v>
       </c>
       <c r="C18" s="17" t="s">

--- a/30_請求書.xlsx
+++ b/30_請求書.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEFFFC8C-23B4-49FD-A276-249911177679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBE1BF3-0F65-41B5-BCAA-F6449EF139B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3996" yWindow="804" windowWidth="17280" windowHeight="10872" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3996" yWindow="804" windowWidth="17280" windowHeight="10872" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="商品リスト" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="40">
   <si>
     <t>請求書</t>
     <rPh sb="0" eb="3">
@@ -38,19 +38,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>株式会社XYZアシスタント様</t>
-    <rPh sb="0" eb="2">
-      <t>カブシキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カイシャ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>サマ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>請求番号：</t>
     <rPh sb="0" eb="2">
       <t>セイキュウ</t>
@@ -370,11 +357,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Ctrl+:→</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Ctrl+;→</t>
+    <t xml:space="preserve">  </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -382,13 +369,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="176" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
     <numFmt numFmtId="177" formatCode="[$]ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@" x16r2:formatCode16="[$-ja-JP-x-gannen]ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="180" formatCode="#,##0&quot;円&quot;"/>
+    <numFmt numFmtId="178" formatCode="#,##0&quot;円&quot;"/>
+    <numFmt numFmtId="182" formatCode="@&quot; 様&quot;"/>
+    <numFmt numFmtId="183" formatCode="@&quot;様&quot;"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -416,14 +405,6 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -575,7 +556,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -593,7 +574,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -618,12 +598,17 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="38" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -633,38 +618,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
@@ -1020,13 +1008,13 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
@@ -1034,9 +1022,9 @@
         <v>1001</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="23">
+        <v>18</v>
+      </c>
+      <c r="D3" s="22">
         <v>15900</v>
       </c>
     </row>
@@ -1045,9 +1033,9 @@
         <v>1002</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="23">
+        <v>19</v>
+      </c>
+      <c r="D4" s="22">
         <v>19900</v>
       </c>
     </row>
@@ -1056,9 +1044,9 @@
         <v>1003</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="23">
+        <v>20</v>
+      </c>
+      <c r="D5" s="22">
         <v>49400</v>
       </c>
     </row>
@@ -1067,9 +1055,9 @@
         <v>2001</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="23">
+        <v>21</v>
+      </c>
+      <c r="D6" s="22">
         <v>9800</v>
       </c>
     </row>
@@ -1078,9 +1066,9 @@
         <v>2002</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="23">
+        <v>22</v>
+      </c>
+      <c r="D7" s="22">
         <v>14000</v>
       </c>
     </row>
@@ -1089,9 +1077,9 @@
         <v>2003</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="23">
+        <v>23</v>
+      </c>
+      <c r="D8" s="22">
         <v>25400</v>
       </c>
     </row>
@@ -1100,9 +1088,9 @@
         <v>3001</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="23">
+        <v>24</v>
+      </c>
+      <c r="D9" s="22">
         <v>12300</v>
       </c>
     </row>
@@ -1111,9 +1099,9 @@
         <v>3002</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="23">
+        <v>25</v>
+      </c>
+      <c r="D10" s="22">
         <v>26700</v>
       </c>
     </row>
@@ -1122,9 +1110,9 @@
         <v>3003</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="23">
+        <v>26</v>
+      </c>
+      <c r="D11" s="22">
         <v>3500</v>
       </c>
     </row>
@@ -1144,7 +1132,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
@@ -1153,177 +1141,151 @@
     <col min="1" max="1" width="14.109375" customWidth="1"/>
     <col min="2" max="2" width="35.109375" customWidth="1"/>
     <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="10.109375" customWidth="1"/>
     <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="5" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="19"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="40"/>
+      <c r="D3" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="D3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="9"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
-      <c r="D4" s="39">
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="D4" s="31">
         <f ca="1">TODAY()</f>
         <v>45373</v>
       </c>
-      <c r="E4" s="39"/>
-      <c r="F4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="18">
-        <v>45373</v>
-      </c>
+      <c r="E4" s="31"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="40">
-        <v>0.58472222222222225</v>
-      </c>
+      <c r="G5" s="27"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="33">
+        <f>E19</f>
+        <v>0</v>
+      </c>
+      <c r="B7" s="33"/>
+      <c r="D7" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="30"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="D8" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="30"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="38">
-        <f>E19</f>
-        <v>194370</v>
-      </c>
-      <c r="B7" s="38"/>
-      <c r="D7" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="26"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="D8" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="26"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
+      <c r="B10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="C10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="E10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>1001</v>
-      </c>
+      <c r="A11" s="3"/>
       <c r="B11" s="4" t="str">
         <f>IF(A11="","",VLOOKUP(A11,テーブル1[],2,FALSE))</f>
-        <v>折りたたみテーブル</v>
-      </c>
-      <c r="C11" s="37">
+        <v/>
+      </c>
+      <c r="C11" s="26" t="str">
         <f>IFERROR(VLOOKUP(A11,テーブル1[],3,FALSE),"")</f>
-        <v>15900</v>
-      </c>
-      <c r="D11" s="22">
-        <v>2</v>
-      </c>
-      <c r="E11" s="21">
+        <v/>
+      </c>
+      <c r="D11" s="21"/>
+      <c r="E11" s="20" t="str">
         <f>IFERROR(C11*D11,"")</f>
-        <v>31800</v>
+        <v/>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>1002</v>
-      </c>
+      <c r="A12" s="3"/>
       <c r="B12" s="4" t="str">
         <f>IF(A12="","",VLOOKUP(A12,テーブル1[],2,FALSE))</f>
-        <v>ラウンドテーブル</v>
-      </c>
-      <c r="C12" s="37">
+        <v/>
+      </c>
+      <c r="C12" s="26" t="str">
         <f>IFERROR(VLOOKUP(A12,テーブル1[],3,FALSE),"")</f>
-        <v>19900</v>
-      </c>
-      <c r="D12" s="22">
-        <v>2</v>
-      </c>
-      <c r="E12" s="21">
+        <v/>
+      </c>
+      <c r="D12" s="21"/>
+      <c r="E12" s="20" t="str">
         <f t="shared" ref="E12:E16" si="0">IFERROR(C12*D12,"")</f>
-        <v>39800</v>
+        <v/>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>2001</v>
-      </c>
+      <c r="A13" s="3"/>
       <c r="B13" s="4" t="str">
         <f>IF(A13="","",VLOOKUP(A13,テーブル1[],2,FALSE))</f>
-        <v>OAチェア</v>
-      </c>
-      <c r="C13" s="37">
+        <v/>
+      </c>
+      <c r="C13" s="26" t="str">
         <f>IFERROR(VLOOKUP(A13,テーブル1[],3,FALSE),"")</f>
-        <v>9800</v>
-      </c>
-      <c r="D13" s="22">
-        <v>8</v>
-      </c>
-      <c r="E13" s="21">
+        <v/>
+      </c>
+      <c r="D13" s="21"/>
+      <c r="E13" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>78400</v>
+        <v/>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>3002</v>
-      </c>
+      <c r="A14" s="3"/>
       <c r="B14" s="4" t="str">
         <f>IF(A14="","",VLOOKUP(A14,テーブル1[],2,FALSE))</f>
-        <v>ホワイトボード</v>
-      </c>
-      <c r="C14" s="37">
+        <v/>
+      </c>
+      <c r="C14" s="26" t="str">
         <f>IFERROR(VLOOKUP(A14,テーブル1[],3,FALSE),"")</f>
-        <v>26700</v>
-      </c>
-      <c r="D14" s="22">
-        <v>1</v>
-      </c>
-      <c r="E14" s="21">
+        <v/>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="E14" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>26700</v>
+        <v/>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1332,12 +1294,12 @@
         <f>IF(A15="","",VLOOKUP(A15,テーブル1[],2,FALSE))</f>
         <v/>
       </c>
-      <c r="C15" s="37" t="str">
+      <c r="C15" s="26" t="str">
         <f>IFERROR(VLOOKUP(A15,テーブル1[],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="21" t="str">
+      <c r="D15" s="25"/>
+      <c r="E15" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1348,56 +1310,56 @@
         <f>IF(A16="","",VLOOKUP(A16,テーブル1[],2,FALSE))</f>
         <v/>
       </c>
-      <c r="C16" s="37" t="str">
+      <c r="C16" s="26" t="str">
         <f>IFERROR(VLOOKUP(A16,テーブル1[],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D16" s="36"/>
-      <c r="E16" s="21" t="str">
+      <c r="D16" s="25"/>
+      <c r="E16" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
         <v>12</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="29"/>
+      <c r="E17" s="23">
+        <f>SUM(E11:E16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="32"/>
+      <c r="B18" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C18" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="D17" s="25"/>
-      <c r="E17" s="34">
-        <f>SUM(E11:E16)</f>
-        <v>176700</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="27"/>
-      <c r="B18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="D18" s="7">
         <v>0.1</v>
       </c>
       <c r="E18" s="3">
         <f>ROUNDDOWN(E17*D18,0)</f>
-        <v>17670</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C19" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="35">
+      <c r="C19" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="29"/>
+      <c r="E19" s="24">
         <f>E17+E18</f>
-        <v>194370</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1438,13 +1400,13 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.109375" customWidth="1"/>
-    <col min="2" max="2" width="18.21875" customWidth="1"/>
+    <col min="2" max="2" width="35.109375" customWidth="1"/>
     <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="10.109375" customWidth="1"/>
@@ -1452,30 +1414,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="5" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="18"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="39"/>
+      <c r="D3" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="19"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="27"/>
-      <c r="D3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="9">
-        <v>100123</v>
-      </c>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
       <c r="D4" s="31">
         <f ca="1">TODAY()</f>
         <v>45373</v>
@@ -1483,121 +1443,184 @@
       <c r="E4" s="31"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="26"/>
+      <c r="A6" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="30"/>
       <c r="E6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="38"/>
+      <c r="B7" s="38"/>
+      <c r="D7" s="30" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
-      <c r="D7" s="26" t="s">
+      <c r="E7" s="30"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="D8" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="26"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="D8" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="26"/>
+      <c r="E8" s="30"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="C10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="D10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="E10" s="11" t="s">
         <v>10</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="B11" s="4" t="str">
+        <f>IF(A11="","",VLOOKUP(A11,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C11" s="26" t="str">
+        <f>IFERROR(VLOOKUP(A11,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D11" s="21"/>
+      <c r="E11" s="20" t="str">
+        <f>IFERROR(C11*D11,"")</f>
+        <v/>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="B12" s="4" t="str">
+        <f>IF(A12="","",VLOOKUP(A12,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C12" s="26" t="str">
+        <f>IFERROR(VLOOKUP(A12,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D12" s="21"/>
+      <c r="E12" s="20" t="str">
+        <f t="shared" ref="E12:E16" si="0">IFERROR(C12*D12,"")</f>
+        <v/>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="B13" s="4" t="str">
+        <f>IF(A13="","",VLOOKUP(A13,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C13" s="26" t="str">
+        <f>IFERROR(VLOOKUP(A13,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D13" s="21"/>
+      <c r="E13" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="B14" s="4" t="str">
+        <f>IF(A14="","",VLOOKUP(A14,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C14" s="26" t="str">
+        <f>IFERROR(VLOOKUP(A14,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="E14" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="B15" s="4" t="str">
+        <f>IF(A15="","",VLOOKUP(A15,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C15" s="26" t="str">
+        <f>IFERROR(VLOOKUP(A15,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D15" s="25"/>
+      <c r="E15" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="B16" s="4" t="str">
+        <f>IF(A16="","",VLOOKUP(A16,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C16" s="26" t="str">
+        <f>IFERROR(VLOOKUP(A16,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D16" s="25"/>
+      <c r="E16" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" s="1"/>
-      <c r="C17" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="3"/>
+      <c r="C17" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="34"/>
+      <c r="E17" s="23">
+        <f>SUM(E11:E16)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>16</v>
+        <v>31</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="D18" s="7">
         <v>0.1</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="3">
+        <f>ROUNDDOWN(E17*D18,0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C19" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="3"/>
+      <c r="C19" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="34"/>
+      <c r="E19" s="24">
+        <f>E17+E18</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1612,8 +1635,23 @@
     <mergeCell ref="A3:B4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
+  <dataValidations count="1">
+    <dataValidation imeMode="halfAlpha" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D14" xr:uid="{CC1272F6-EFC4-45B8-9F05-C6773C9529DC}"/>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{45A6C367-2022-4CDB-8EE4-77F6A7E94B10}">
+          <x14:formula1>
+            <xm:f>商品リスト!$B$3:$B$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>A11:A16</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1621,167 +1659,249 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6ACFBE9-CFDD-4699-A4A8-6B6CC35D1CFE}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.109375" customWidth="1"/>
-    <col min="2" max="2" width="18.21875" customWidth="1"/>
+    <col min="2" max="2" width="35.109375" customWidth="1"/>
     <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="10.109375" customWidth="1"/>
     <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="5" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="18"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="39"/>
+      <c r="D3" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="19"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="27"/>
-      <c r="D3" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="9">
-        <v>100123</v>
-      </c>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
-      <c r="D4" s="18">
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="D4" s="31">
         <f ca="1">TODAY()</f>
         <v>45373</v>
       </c>
+      <c r="E4" s="31"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="30"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="26"/>
       <c r="E6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D7" s="43" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D7" t="s">
+      <c r="E7" s="43"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D8" s="43" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
+      <c r="E8" s="43"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="C10" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="D10" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="E10" s="14" t="s">
         <v>10</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="B11" s="4" t="str">
+        <f>IF(A11="","",VLOOKUP(A11,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C11" s="26" t="str">
+        <f>IFERROR(VLOOKUP(A11,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D11" s="21"/>
+      <c r="E11" s="20" t="str">
+        <f>IFERROR(C11*D11,"")</f>
+        <v/>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="B12" s="4" t="str">
+        <f>IF(A12="","",VLOOKUP(A12,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C12" s="26" t="str">
+        <f>IFERROR(VLOOKUP(A12,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D12" s="21"/>
+      <c r="E12" s="20" t="str">
+        <f t="shared" ref="E12:E16" si="0">IFERROR(C12*D12,"")</f>
+        <v/>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="B13" s="4" t="str">
+        <f>IF(A13="","",VLOOKUP(A13,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C13" s="26" t="str">
+        <f>IFERROR(VLOOKUP(A13,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D13" s="21"/>
+      <c r="E13" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="B14" s="4" t="str">
+        <f>IF(A14="","",VLOOKUP(A14,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C14" s="26" t="str">
+        <f>IFERROR(VLOOKUP(A14,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="E14" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="B15" s="4" t="str">
+        <f>IF(A15="","",VLOOKUP(A15,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C15" s="26" t="str">
+        <f>IFERROR(VLOOKUP(A15,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D15" s="25"/>
+      <c r="E15" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="B16" s="4" t="str">
+        <f>IF(A16="","",VLOOKUP(A16,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C16" s="26" t="str">
+        <f>IFERROR(VLOOKUP(A16,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D16" s="25"/>
+      <c r="E16" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="36"/>
+      <c r="E17" s="23">
+        <f>SUM(E11:E16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="16" t="s">
         <v>15</v>
-      </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>16</v>
       </c>
       <c r="D18" s="7">
         <v>0.1</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="3">
+        <f>ROUNDDOWN(E17*D18,0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C19" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="3"/>
+      <c r="C19" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="36"/>
+      <c r="E19" s="24">
+        <f>E17+E18</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:B4"/>
-    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
+  <dataValidations count="1">
+    <dataValidation imeMode="halfAlpha" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D14" xr:uid="{72C9FD8C-BE76-4058-B20F-5DCA450A0A9F}"/>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{45278645-09DC-4B45-A234-6F3081BCC2C5}">
+          <x14:formula1>
+            <xm:f>商品リスト!$B$3:$B$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>A11:A16</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/30_請求書.xlsx
+++ b/30_請求書.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBE1BF3-0F65-41B5-BCAA-F6449EF139B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67237B7-8571-4CFA-9EE7-300E8868EFC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3996" yWindow="804" windowWidth="17280" windowHeight="10872" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3996" yWindow="804" windowWidth="17280" windowHeight="10872" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="商品リスト" sheetId="2" r:id="rId1"/>
@@ -374,10 +374,10 @@
     <numFmt numFmtId="176" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
     <numFmt numFmtId="177" formatCode="[$]ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@" x16r2:formatCode16="[$-ja-JP-x-gannen]ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="178" formatCode="#,##0&quot;円&quot;"/>
-    <numFmt numFmtId="182" formatCode="@&quot; 様&quot;"/>
-    <numFmt numFmtId="183" formatCode="@&quot;様&quot;"/>
+    <numFmt numFmtId="179" formatCode="@&quot; 様&quot;"/>
+    <numFmt numFmtId="180" formatCode="@&quot;様&quot;"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -414,13 +414,6 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -556,7 +549,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -598,17 +591,20 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -624,7 +620,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -633,26 +629,35 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
@@ -1024,7 +1029,7 @@
       <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="21">
         <v>15900</v>
       </c>
     </row>
@@ -1035,7 +1040,7 @@
       <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="21">
         <v>19900</v>
       </c>
     </row>
@@ -1046,7 +1051,7 @@
       <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="21">
         <v>49400</v>
       </c>
     </row>
@@ -1057,7 +1062,7 @@
       <c r="C6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="21">
         <v>9800</v>
       </c>
     </row>
@@ -1068,7 +1073,7 @@
       <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="21">
         <v>14000</v>
       </c>
     </row>
@@ -1079,7 +1084,7 @@
       <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="21">
         <v>25400</v>
       </c>
     </row>
@@ -1090,7 +1095,7 @@
       <c r="C9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="21">
         <v>12300</v>
       </c>
     </row>
@@ -1101,7 +1106,7 @@
       <c r="C10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="21">
         <v>26700</v>
       </c>
     </row>
@@ -1112,7 +1117,7 @@
       <c r="C11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="21">
         <v>3500</v>
       </c>
     </row>
@@ -1132,7 +1137,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
@@ -1148,37 +1153,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="5" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
       <c r="F1" s="18"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="D3" s="42" t="s">
+      <c r="B3" s="42"/>
+      <c r="D3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="8"/>
+      <c r="E3" s="43"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="D4" s="31">
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="D4" s="32">
         <f ca="1">TODAY()</f>
         <v>45373</v>
       </c>
-      <c r="E4" s="31"/>
+      <c r="E4" s="32"/>
       <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G5" s="27"/>
+      <c r="G5" s="26"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -1189,23 +1194,23 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="33">
+      <c r="A7" s="34">
         <f>E19</f>
         <v>0</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="D7" s="30" t="s">
+      <c r="B7" s="34"/>
+      <c r="D7" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="30"/>
+      <c r="E7" s="31"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
-      <c r="D8" s="30" t="s">
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="D8" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="30"/>
+      <c r="E8" s="31"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
@@ -1225,119 +1230,119 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
+      <c r="A11" s="44"/>
       <c r="B11" s="4" t="str">
         <f>IF(A11="","",VLOOKUP(A11,テーブル1[],2,FALSE))</f>
         <v/>
       </c>
-      <c r="C11" s="26" t="str">
+      <c r="C11" s="25" t="str">
         <f>IFERROR(VLOOKUP(A11,テーブル1[],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="20" t="str">
+      <c r="D11" s="45"/>
+      <c r="E11" s="19" t="str">
         <f>IFERROR(C11*D11,"")</f>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
+      <c r="A12" s="44"/>
       <c r="B12" s="4" t="str">
         <f>IF(A12="","",VLOOKUP(A12,テーブル1[],2,FALSE))</f>
         <v/>
       </c>
-      <c r="C12" s="26" t="str">
+      <c r="C12" s="25" t="str">
         <f>IFERROR(VLOOKUP(A12,テーブル1[],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="20" t="str">
+      <c r="D12" s="45"/>
+      <c r="E12" s="19" t="str">
         <f t="shared" ref="E12:E16" si="0">IFERROR(C12*D12,"")</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
+      <c r="A13" s="44"/>
       <c r="B13" s="4" t="str">
         <f>IF(A13="","",VLOOKUP(A13,テーブル1[],2,FALSE))</f>
         <v/>
       </c>
-      <c r="C13" s="26" t="str">
+      <c r="C13" s="25" t="str">
         <f>IFERROR(VLOOKUP(A13,テーブル1[],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="20" t="str">
+      <c r="D13" s="45"/>
+      <c r="E13" s="19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
+      <c r="A14" s="44"/>
       <c r="B14" s="4" t="str">
         <f>IF(A14="","",VLOOKUP(A14,テーブル1[],2,FALSE))</f>
         <v/>
       </c>
-      <c r="C14" s="26" t="str">
+      <c r="C14" s="25" t="str">
         <f>IFERROR(VLOOKUP(A14,テーブル1[],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="20" t="str">
+      <c r="D14" s="45"/>
+      <c r="E14" s="19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
+      <c r="A15" s="44"/>
       <c r="B15" s="4" t="str">
         <f>IF(A15="","",VLOOKUP(A15,テーブル1[],2,FALSE))</f>
         <v/>
       </c>
-      <c r="C15" s="26" t="str">
+      <c r="C15" s="25" t="str">
         <f>IFERROR(VLOOKUP(A15,テーブル1[],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D15" s="25"/>
-      <c r="E15" s="20" t="str">
+      <c r="D15" s="46"/>
+      <c r="E15" s="19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="4" t="str">
         <f>IF(A16="","",VLOOKUP(A16,テーブル1[],2,FALSE))</f>
         <v/>
       </c>
-      <c r="C16" s="26" t="str">
+      <c r="C16" s="25" t="str">
         <f>IFERROR(VLOOKUP(A16,テーブル1[],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="20" t="str">
+      <c r="D16" s="46"/>
+      <c r="E16" s="19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="33" t="s">
         <v>11</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="23">
+      <c r="D17" s="30"/>
+      <c r="E17" s="22">
         <f>SUM(E11:E16)</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="32"/>
+      <c r="A18" s="33"/>
       <c r="B18" t="s">
         <v>13</v>
       </c>
@@ -1353,16 +1358,17 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="24">
+      <c r="D19" s="30"/>
+      <c r="E19" s="23">
         <f>E17+E18</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="9">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="C19:D19"/>
@@ -1414,58 +1420,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="5" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
       <c r="F1" s="18"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="D3" s="42" t="s">
+      <c r="B3" s="38"/>
+      <c r="D3" s="28" t="s">
         <v>28</v>
       </c>
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39"/>
-      <c r="D4" s="31">
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="D4" s="32">
         <f ca="1">TODAY()</f>
         <v>45373</v>
       </c>
-      <c r="E4" s="31"/>
+      <c r="E4" s="32"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="30"/>
+      <c r="B6" s="31"/>
       <c r="E6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="D7" s="30" t="s">
+      <c r="A7" s="37"/>
+      <c r="B7" s="37"/>
+      <c r="D7" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="30"/>
+      <c r="E7" s="31"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="D8" s="30" t="s">
+      <c r="A8" s="37"/>
+      <c r="B8" s="37"/>
+      <c r="D8" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="30"/>
+      <c r="E8" s="31"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
@@ -1490,12 +1496,12 @@
         <f>IF(A11="","",VLOOKUP(A11,テーブル1[],2,FALSE))</f>
         <v/>
       </c>
-      <c r="C11" s="26" t="str">
+      <c r="C11" s="25" t="str">
         <f>IFERROR(VLOOKUP(A11,テーブル1[],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="20" t="str">
+      <c r="D11" s="20"/>
+      <c r="E11" s="19" t="str">
         <f>IFERROR(C11*D11,"")</f>
         <v/>
       </c>
@@ -1506,12 +1512,12 @@
         <f>IF(A12="","",VLOOKUP(A12,テーブル1[],2,FALSE))</f>
         <v/>
       </c>
-      <c r="C12" s="26" t="str">
+      <c r="C12" s="25" t="str">
         <f>IFERROR(VLOOKUP(A12,テーブル1[],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="20" t="str">
+      <c r="D12" s="20"/>
+      <c r="E12" s="19" t="str">
         <f t="shared" ref="E12:E16" si="0">IFERROR(C12*D12,"")</f>
         <v/>
       </c>
@@ -1522,12 +1528,12 @@
         <f>IF(A13="","",VLOOKUP(A13,テーブル1[],2,FALSE))</f>
         <v/>
       </c>
-      <c r="C13" s="26" t="str">
+      <c r="C13" s="25" t="str">
         <f>IFERROR(VLOOKUP(A13,テーブル1[],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="20" t="str">
+      <c r="D13" s="20"/>
+      <c r="E13" s="19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1538,12 +1544,12 @@
         <f>IF(A14="","",VLOOKUP(A14,テーブル1[],2,FALSE))</f>
         <v/>
       </c>
-      <c r="C14" s="26" t="str">
+      <c r="C14" s="25" t="str">
         <f>IFERROR(VLOOKUP(A14,テーブル1[],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="20" t="str">
+      <c r="D14" s="20"/>
+      <c r="E14" s="19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1554,12 +1560,12 @@
         <f>IF(A15="","",VLOOKUP(A15,テーブル1[],2,FALSE))</f>
         <v/>
       </c>
-      <c r="C15" s="26" t="str">
+      <c r="C15" s="25" t="str">
         <f>IFERROR(VLOOKUP(A15,テーブル1[],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D15" s="25"/>
-      <c r="E15" s="20" t="str">
+      <c r="D15" s="24"/>
+      <c r="E15" s="19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1570,12 +1576,12 @@
         <f>IF(A16="","",VLOOKUP(A16,テーブル1[],2,FALSE))</f>
         <v/>
       </c>
-      <c r="C16" s="26" t="str">
+      <c r="C16" s="25" t="str">
         <f>IFERROR(VLOOKUP(A16,テーブル1[],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="20" t="str">
+      <c r="D16" s="24"/>
+      <c r="E16" s="19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1585,11 +1591,11 @@
         <v>30</v>
       </c>
       <c r="B17" s="1"/>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="34"/>
-      <c r="E17" s="23">
+      <c r="D17" s="35"/>
+      <c r="E17" s="22">
         <f>SUM(E11:E16)</f>
         <v>0</v>
       </c>
@@ -1613,11 +1619,11 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="24">
+      <c r="D19" s="35"/>
+      <c r="E19" s="23">
         <f>E17+E18</f>
         <v>0</v>
       </c>
@@ -1659,8 +1665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6ACFBE9-CFDD-4699-A4A8-6B6CC35D1CFE}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1674,39 +1680,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="5" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
       <c r="F1" s="18"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="D3" s="42" t="s">
+      <c r="B3" s="38"/>
+      <c r="D3" s="28" t="s">
         <v>34</v>
       </c>
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39"/>
-      <c r="D4" s="31">
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="D4" s="32">
         <f ca="1">TODAY()</f>
         <v>45373</v>
       </c>
-      <c r="E4" s="31"/>
+      <c r="E4" s="32"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="30"/>
+      <c r="B5" s="31"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E6" t="s">
@@ -1714,16 +1720,14 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D7" s="43" t="s">
+      <c r="D7" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="43"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D8" s="43" t="s">
+      <c r="D8" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="43"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
@@ -1748,12 +1752,12 @@
         <f>IF(A11="","",VLOOKUP(A11,テーブル1[],2,FALSE))</f>
         <v/>
       </c>
-      <c r="C11" s="26" t="str">
+      <c r="C11" s="25" t="str">
         <f>IFERROR(VLOOKUP(A11,テーブル1[],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="20" t="str">
+      <c r="D11" s="20"/>
+      <c r="E11" s="19" t="str">
         <f>IFERROR(C11*D11,"")</f>
         <v/>
       </c>
@@ -1764,12 +1768,12 @@
         <f>IF(A12="","",VLOOKUP(A12,テーブル1[],2,FALSE))</f>
         <v/>
       </c>
-      <c r="C12" s="26" t="str">
+      <c r="C12" s="25" t="str">
         <f>IFERROR(VLOOKUP(A12,テーブル1[],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="20" t="str">
+      <c r="D12" s="20"/>
+      <c r="E12" s="19" t="str">
         <f t="shared" ref="E12:E16" si="0">IFERROR(C12*D12,"")</f>
         <v/>
       </c>
@@ -1780,12 +1784,12 @@
         <f>IF(A13="","",VLOOKUP(A13,テーブル1[],2,FALSE))</f>
         <v/>
       </c>
-      <c r="C13" s="26" t="str">
+      <c r="C13" s="25" t="str">
         <f>IFERROR(VLOOKUP(A13,テーブル1[],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="20" t="str">
+      <c r="D13" s="20"/>
+      <c r="E13" s="19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1796,12 +1800,12 @@
         <f>IF(A14="","",VLOOKUP(A14,テーブル1[],2,FALSE))</f>
         <v/>
       </c>
-      <c r="C14" s="26" t="str">
+      <c r="C14" s="25" t="str">
         <f>IFERROR(VLOOKUP(A14,テーブル1[],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="20" t="str">
+      <c r="D14" s="20"/>
+      <c r="E14" s="19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1812,12 +1816,12 @@
         <f>IF(A15="","",VLOOKUP(A15,テーブル1[],2,FALSE))</f>
         <v/>
       </c>
-      <c r="C15" s="26" t="str">
+      <c r="C15" s="25" t="str">
         <f>IFERROR(VLOOKUP(A15,テーブル1[],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D15" s="25"/>
-      <c r="E15" s="20" t="str">
+      <c r="D15" s="24"/>
+      <c r="E15" s="19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1828,32 +1832,32 @@
         <f>IF(A16="","",VLOOKUP(A16,テーブル1[],2,FALSE))</f>
         <v/>
       </c>
-      <c r="C16" s="26" t="str">
+      <c r="C16" s="25" t="str">
         <f>IFERROR(VLOOKUP(A16,テーブル1[],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="20" t="str">
+      <c r="D16" s="24"/>
+      <c r="E16" s="19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="36"/>
-      <c r="E17" s="23">
+      <c r="D17" s="39"/>
+      <c r="E17" s="22">
         <f>SUM(E11:E16)</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="41" t="s">
         <v>37</v>
       </c>
       <c r="C18" s="16" t="s">
@@ -1868,11 +1872,11 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="36"/>
-      <c r="E19" s="24">
+      <c r="D19" s="39"/>
+      <c r="E19" s="23">
         <f>E17+E18</f>
         <v>0</v>
       </c>
